--- a/static/template_xlsx/Template.xlsx
+++ b/static/template_xlsx/Template.xlsx
@@ -27,24 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>惠州市鑫泽工艺有限公司-考勤薪酬记录</t>
   </si>
   <si>
     <t>人员</t>
-  </si>
-  <si>
-    <t>班次签到时间</t>
-  </si>
-  <si>
-    <t>班次签退时间</t>
-  </si>
-  <si>
-    <t>工时</t>
-  </si>
-  <si>
-    <t>薪酬</t>
   </si>
 </sst>
 </file>
@@ -417,7 +405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -429,15 +417,68 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -562,7 +603,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,34 +615,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,13 +727,31 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1040,10 +1099,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="A1" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1052,66 +1111,64 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+    <row r="4" spans="1:14">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="I3:I4"/>
+  <mergeCells count="2">
     <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
